--- a/prochickenfitness/API script/UserAPI.xlsx
+++ b/prochickenfitness/API script/UserAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/21127005_student_hcmus_edu_vn/Documents/Desktop/SE/prochickenfitness/API script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{68A43719-0B81-42E4-B847-B911C3D135EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFDAB26D-4679-4D2E-B7F2-EE85385DA09E}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{68A43719-0B81-42E4-B847-B911C3D135EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB393C1A-B3A5-4424-B0B2-575EEA3A0198}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07EC8FF7-79D7-483B-8505-F3D7EE035358}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>API name</t>
   </si>
@@ -162,6 +162,27 @@
   </si>
   <si>
     <t>username (required)</t>
+  </si>
+  <si>
+    <t>api/user/update/ingredient</t>
+  </si>
+  <si>
+    <t>Update ingredient cho người dùng</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>Array[Int]</t>
+  </si>
+  <si>
+    <t>api/ingredient/</t>
+  </si>
+  <si>
+    <t>Lấy tất cả ingredients</t>
+  </si>
+  <si>
+    <t>Array (status = 0 : ghét, status = 1: thích)</t>
   </si>
 </sst>
 </file>
@@ -611,20 +632,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F2F664-3092-4BBE-87FE-0C94BAD080E5}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1062,13 +1083,75 @@
       </c>
       <c r="G26" s="14"/>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="B17:B26"/>
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="D17:D26"/>
     <mergeCell ref="G17:G26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="G2:G3"/>
